--- a/DisorderEvent/file/result.xlsx
+++ b/DisorderEvent/file/result.xlsx
@@ -153,7 +153,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -419,6 +419,9 @@
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>37</v>
+      </c>
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>

--- a/DisorderEvent/file/result.xlsx
+++ b/DisorderEvent/file/result.xlsx
@@ -5,17 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="204" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Alignment_Astar</t>
   </si>
@@ -36,20 +37,64 @@
   </si>
   <si>
     <t>Simpara2</t>
+  </si>
+  <si>
+    <t>InvTask</t>
+  </si>
+  <si>
+    <t>shortloop_rev</t>
+  </si>
+  <si>
+    <t>shortloop3_rev</t>
+  </si>
+  <si>
+    <t>NewAlgorithm</t>
+  </si>
+  <si>
+    <t>Shortloop</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>6,3</t>
+  </si>
+  <si>
+    <t>Shortloop_reverse</t>
+  </si>
+  <si>
+    <t>13,10</t>
+  </si>
+  <si>
+    <t>Shortloop3</t>
+  </si>
+  <si>
+    <t>6,4,9</t>
+  </si>
+  <si>
+    <t>6,4,17</t>
+  </si>
+  <si>
+    <t>Shortloop3_reverse</t>
+  </si>
+  <si>
+    <t>28,23,22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YY\年M\月D\日"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -70,12 +115,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Monospace"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,7 +174,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,6 +184,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,10 +212,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -169,6 +231,9 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -185,6 +250,9 @@
       <c r="C3" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -193,41 +261,53 @@
       <c r="B4" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>13</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>43</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>155</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>677</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>830</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>791</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,16 +325,22 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="E9" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>16</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,21 +348,27 @@
         <v>100</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>77</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>204</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,10 +376,13 @@
         <v>10000</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1105</v>
-      </c>
-      <c r="C13" s="2" t="n">
+        <v>865</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>1333</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>1122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,27 +400,36 @@
       <c r="C15" s="0" t="n">
         <v>10</v>
       </c>
+      <c r="E15" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="3" t="n">
         <v>43</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>26</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="3" t="n">
         <v>82</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,16 +442,22 @@
       <c r="C18" s="0" t="n">
         <v>302</v>
       </c>
+      <c r="E18" s="2" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="3" t="n">
         <v>2570</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="3" t="n">
         <v>1614</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>1499</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -365,49 +475,64 @@
       <c r="C21" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="E21" s="2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="3" t="n">
         <v>37</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="3" t="n">
         <v>111</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>257</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="3" t="n">
         <v>535</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>479</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="3" t="n">
         <v>2570</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="3" t="n">
         <v>3313</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>3015</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,6 +550,9 @@
       <c r="C27" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="E27" s="2" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -435,6 +563,9 @@
       </c>
       <c r="C28" s="0" t="n">
         <v>136</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,19 +575,25 @@
       <c r="B29" s="0" t="n">
         <v>473</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="3" t="n">
         <v>321</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>1000</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="3" t="n">
         <v>2829</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="3" t="n">
         <v>1674</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>918</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,8 +603,191 @@
       <c r="B31" s="0" t="n">
         <v>25568</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="3" t="n">
         <v>12806</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>902</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>1843</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>842</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>5123</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>3325</v>
       </c>
     </row>
   </sheetData>
@@ -479,4 +799,83 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.639175257732"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/DisorderEvent/file/result.xlsx
+++ b/DisorderEvent/file/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="196" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Alignment_Astar</t>
   </si>
@@ -33,6 +33,9 @@
     <t>simpara</t>
   </si>
   <si>
+    <t>=</t>
+  </si>
+  <si>
     <t>shortloop3</t>
   </si>
   <si>
@@ -46,6 +49,27 @@
   </si>
   <si>
     <t>shortloop3_rev</t>
+  </si>
+  <si>
+    <t>并发节点个数</t>
+  </si>
+  <si>
+    <t>只选１个</t>
+  </si>
+  <si>
+    <t>估价函数</t>
+  </si>
+  <si>
+    <t>针对并发</t>
+  </si>
+  <si>
+    <t>日志错的/对的</t>
+  </si>
+  <si>
+    <t>正确率</t>
+  </si>
+  <si>
+    <t>剪枝优化</t>
   </si>
   <si>
     <t>NewAlgorithm</t>
@@ -212,10 +236,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -384,11 +408,18 @@
       <c r="E13" s="2" t="n">
         <v>1122</v>
       </c>
+      <c r="G13" s="0" t="e">
+        <f aca="false">10!</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G14" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -462,7 +493,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,7 +568,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,7 +643,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,7 +703,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -732,7 +763,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -788,6 +819,35 @@
       </c>
       <c r="E50" s="2" t="n">
         <v>3325</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -808,13 +868,15 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.639175257732"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.159793814433"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3659793814433"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.639175257732"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -822,51 +884,51 @@
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
